--- a/derivatives/covariates/istart_covariates_7june2022.xlsx
+++ b/derivatives/covariates/istart_covariates_7june2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-socdoors/derivatives/covariates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1828CB-720C-DC4F-A027-7D77F999AA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A20DB-56A9-6F44-B258-780A3161C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32720" yWindow="3940" windowWidth="22180" windowHeight="15680" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMS1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BA10" sqref="BA10"/>
+    <sheetView tabSelected="1" topLeftCell="AO14" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2:BD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2129,16 +2129,16 @@
         <v>-0.94755924975467698</v>
       </c>
       <c r="AN2" s="17">
-        <v>4.12190015429382E-2</v>
+        <v>9.1786299619577641E-3</v>
       </c>
       <c r="AO2" s="17">
-        <v>1.8339952306298399E-2</v>
+        <v>-1.7058703822779714E-3</v>
       </c>
       <c r="AP2" s="17">
-        <v>3.8383381343581602E-2</v>
+        <v>1.2937381748039187E-2</v>
       </c>
       <c r="AQ2" s="17">
-        <v>3.0564571639272501E-3</v>
+        <v>-1.2981171571557192E-2</v>
       </c>
       <c r="AR2"/>
       <c r="AS2" s="9">
@@ -2166,16 +2166,16 @@
         <v>-0.94755924975467698</v>
       </c>
       <c r="BA2" s="17">
-        <v>4.12190015429382E-2</v>
+        <v>9.1786299619577641E-3</v>
       </c>
       <c r="BB2" s="17">
-        <v>1.8339952306298399E-2</v>
+        <v>-1.7058703822779714E-3</v>
       </c>
       <c r="BC2" s="17">
-        <v>3.8383381343581602E-2</v>
+        <v>1.2937381748039187E-2</v>
       </c>
       <c r="BD2" s="17">
-        <v>3.0564571639272501E-3</v>
+        <v>-1.2981171571557192E-2</v>
       </c>
       <c r="BE2"/>
       <c r="BF2" s="9">
@@ -3282,16 +3282,16 @@
         <v>2.9093413986700698</v>
       </c>
       <c r="AN3" s="17">
-        <v>3.4305269426053997E-2</v>
+        <v>2.2648978450735616E-3</v>
       </c>
       <c r="AO3" s="17">
-        <v>1.9507665868776801E-2</v>
+        <v>-5.3815681979956995E-4</v>
       </c>
       <c r="AP3" s="17">
-        <v>5.4864278353590097E-2</v>
+        <v>2.9418278758047683E-2</v>
       </c>
       <c r="AQ3" s="17">
-        <v>-1.84253889712514E-2</v>
+        <v>-3.4463017706735842E-2</v>
       </c>
       <c r="AR3"/>
       <c r="AS3" s="9">
@@ -3319,16 +3319,16 @@
         <v>2.9093413986700698</v>
       </c>
       <c r="BA3" s="17">
-        <v>3.4305269426053997E-2</v>
+        <v>2.2648978450735616E-3</v>
       </c>
       <c r="BB3" s="17">
-        <v>1.9507665868776801E-2</v>
+        <v>-5.3815681979956995E-4</v>
       </c>
       <c r="BC3" s="17">
-        <v>5.4864278353590097E-2</v>
+        <v>2.9418278758047683E-2</v>
       </c>
       <c r="BD3" s="17">
-        <v>-1.84253889712514E-2</v>
+        <v>-3.4463017706735842E-2</v>
       </c>
       <c r="BE3"/>
       <c r="BF3" s="9">
@@ -4435,16 +4435,16 @@
         <v>3.6438235302250002</v>
       </c>
       <c r="AN4" s="17">
-        <v>3.8707079452630799E-2</v>
+        <v>6.6667078716503639E-3</v>
       </c>
       <c r="AO4" s="17">
-        <v>4.2276017717454498E-2</v>
+        <v>2.2230195028878127E-2</v>
       </c>
       <c r="AP4" s="17">
-        <v>1.5213000102278801E-2</v>
+        <v>-1.0232999493263614E-2</v>
       </c>
       <c r="AQ4" s="17">
-        <v>4.3694287039757203E-2</v>
+        <v>2.765665830427276E-2</v>
       </c>
       <c r="AR4"/>
       <c r="AS4" s="9">
@@ -4472,16 +4472,16 @@
         <v>3.6438235302250002</v>
       </c>
       <c r="BA4" s="17">
-        <v>3.8707079452630799E-2</v>
+        <v>6.6667078716503639E-3</v>
       </c>
       <c r="BB4" s="17">
-        <v>4.2276017717454498E-2</v>
+        <v>2.2230195028878127E-2</v>
       </c>
       <c r="BC4" s="17">
-        <v>1.5213000102278801E-2</v>
+        <v>-1.0232999493263614E-2</v>
       </c>
       <c r="BD4" s="17">
-        <v>4.3694287039757203E-2</v>
+        <v>2.765665830427276E-2</v>
       </c>
       <c r="BE4"/>
       <c r="BF4" s="9">
@@ -5588,16 +5588,16 @@
         <v>12.0614027855197</v>
       </c>
       <c r="AN5" s="17">
-        <v>1.9412328059153799E-2</v>
+        <v>-1.2628043521826636E-2</v>
       </c>
       <c r="AO5" s="17">
-        <v>6.34086985848653E-3</v>
+        <v>-1.370495283008984E-2</v>
       </c>
       <c r="AP5" s="17">
-        <v>6.1312674888953901E-2</v>
+        <v>3.586667529341149E-2</v>
       </c>
       <c r="AQ5" s="17">
-        <v>-2.73040585476878E-2</v>
+        <v>-4.3341687283172239E-2</v>
       </c>
       <c r="AR5"/>
       <c r="AS5" s="9">
@@ -5625,16 +5625,16 @@
         <v>12.0614027855197</v>
       </c>
       <c r="BA5" s="17">
-        <v>1.9412328059153799E-2</v>
+        <v>-1.2628043521826636E-2</v>
       </c>
       <c r="BB5" s="17">
-        <v>6.34086985848653E-3</v>
+        <v>-1.370495283008984E-2</v>
       </c>
       <c r="BC5" s="17">
-        <v>6.1312674888953901E-2</v>
+        <v>3.586667529341149E-2</v>
       </c>
       <c r="BD5" s="17">
-        <v>-2.73040585476878E-2</v>
+        <v>-4.3341687283172239E-2</v>
       </c>
       <c r="BE5"/>
       <c r="BF5" s="9">
@@ -6741,16 +6741,16 @@
         <v>9.9823289626171903</v>
       </c>
       <c r="AN6" s="17">
-        <v>-5.64200695525904E-3</v>
+        <v>-3.7682378536239472E-2</v>
       </c>
       <c r="AO6" s="17">
-        <v>4.3581208563974301E-2</v>
+        <v>2.353538587539793E-2</v>
       </c>
       <c r="AP6" s="17">
-        <v>2.88807402936564E-2</v>
+        <v>3.4347406981139854E-3</v>
       </c>
       <c r="AQ6" s="17">
-        <v>8.6636701388200996E-3</v>
+        <v>-7.3739585966643428E-3</v>
       </c>
       <c r="AR6"/>
       <c r="AS6" s="9">
@@ -6778,16 +6778,16 @@
         <v>9.9823289626171903</v>
       </c>
       <c r="BA6" s="17">
-        <v>-5.64200695525904E-3</v>
+        <v>-3.7682378536239472E-2</v>
       </c>
       <c r="BB6" s="17">
-        <v>4.3581208563974301E-2</v>
+        <v>2.353538587539793E-2</v>
       </c>
       <c r="BC6" s="17">
-        <v>2.88807402936564E-2</v>
+        <v>3.4347406981139854E-3</v>
       </c>
       <c r="BD6" s="17">
-        <v>8.6636701388200996E-3</v>
+        <v>-7.3739585966643428E-3</v>
       </c>
       <c r="BE6"/>
       <c r="BF6" s="9">
@@ -7894,16 +7894,16 @@
         <v>-17.229639436087101</v>
       </c>
       <c r="AN7" s="17">
-        <v>6.1109788721329904E-3</v>
+        <v>-2.5929392708847445E-2</v>
       </c>
       <c r="AO7" s="17">
-        <v>4.5752469804329003E-2</v>
+        <v>2.5706647115752632E-2</v>
       </c>
       <c r="AP7" s="17">
-        <v>5.0723250462046697E-2</v>
+        <v>2.5277250866504283E-2</v>
       </c>
       <c r="AQ7" s="17">
-        <v>-1.7282842128163001E-2</v>
+        <v>-3.3320470863647443E-2</v>
       </c>
       <c r="AR7"/>
       <c r="AS7" s="9">
@@ -7931,16 +7931,16 @@
         <v>-17.229639436087101</v>
       </c>
       <c r="BA7" s="17">
-        <v>6.1109788721329904E-3</v>
+        <v>-2.5929392708847445E-2</v>
       </c>
       <c r="BB7" s="17">
-        <v>4.5752469804329003E-2</v>
+        <v>2.5706647115752632E-2</v>
       </c>
       <c r="BC7" s="17">
-        <v>5.0723250462046697E-2</v>
+        <v>2.5277250866504283E-2</v>
       </c>
       <c r="BD7" s="17">
-        <v>-1.7282842128163001E-2</v>
+        <v>-3.3320470863647443E-2</v>
       </c>
       <c r="BE7"/>
       <c r="BF7" s="9">
@@ -9047,16 +9047,16 @@
         <v>-14.7036848654447</v>
       </c>
       <c r="AN8" s="17">
-        <v>5.7587477248477398E-3</v>
+        <v>-2.6281623856132696E-2</v>
       </c>
       <c r="AO8" s="17">
-        <v>4.2845415625812802E-2</v>
+        <v>2.2799592937236431E-2</v>
       </c>
       <c r="AP8" s="17">
-        <v>-2.25104351416862E-2</v>
+        <v>-4.7956434737228618E-2</v>
       </c>
       <c r="AQ8" s="17">
-        <v>3.2767706816636197E-2</v>
+        <v>1.6730078081151754E-2</v>
       </c>
       <c r="AR8"/>
       <c r="AS8" s="9">
@@ -9084,16 +9084,16 @@
         <v>-14.7036848654447</v>
       </c>
       <c r="BA8" s="17">
-        <v>5.7587477248477398E-3</v>
+        <v>-2.6281623856132696E-2</v>
       </c>
       <c r="BB8" s="17">
-        <v>4.2845415625812802E-2</v>
+        <v>2.2799592937236431E-2</v>
       </c>
       <c r="BC8" s="17">
-        <v>-2.25104351416862E-2</v>
+        <v>-4.7956434737228618E-2</v>
       </c>
       <c r="BD8" s="17">
-        <v>3.2767706816636197E-2</v>
+        <v>1.6730078081151754E-2</v>
       </c>
       <c r="BE8"/>
       <c r="BF8" s="9">
@@ -10200,16 +10200,16 @@
         <v>-6.0932141546602203</v>
       </c>
       <c r="AN9" s="17">
-        <v>2.68199693644764E-2</v>
+        <v>-5.2204022165040359E-3</v>
       </c>
       <c r="AO9" s="17">
-        <v>1.7803805276803801E-2</v>
+        <v>-2.2420174117725698E-3</v>
       </c>
       <c r="AP9" s="17">
-        <v>-6.2564234152661102E-3</v>
+        <v>-3.1702423010808528E-2</v>
       </c>
       <c r="AQ9" s="17">
-        <v>5.4673284590324403E-2</v>
+        <v>3.8635655854839961E-2</v>
       </c>
       <c r="AR9"/>
       <c r="AS9" s="9">
@@ -10237,16 +10237,16 @@
         <v>-6.0932141546602203</v>
       </c>
       <c r="BA9" s="17">
-        <v>2.68199693644764E-2</v>
+        <v>-5.2204022165040359E-3</v>
       </c>
       <c r="BB9" s="17">
-        <v>1.7803805276803801E-2</v>
+        <v>-2.2420174117725698E-3</v>
       </c>
       <c r="BC9" s="17">
-        <v>-6.2564234152661102E-3</v>
+        <v>-3.1702423010808528E-2</v>
       </c>
       <c r="BD9" s="17">
-        <v>5.4673284590324403E-2</v>
+        <v>3.8635655854839961E-2</v>
       </c>
       <c r="BE9"/>
       <c r="BF9" s="9">
@@ -11353,16 +11353,16 @@
         <v>13.2080581541674</v>
       </c>
       <c r="AN10" s="17">
-        <v>4.0620538717347603E-3</v>
+        <v>-2.7978317709245675E-2</v>
       </c>
       <c r="AO10" s="17">
-        <v>1.0320722090277601E-2</v>
+        <v>-9.7251005982987703E-3</v>
       </c>
       <c r="AP10" s="17">
-        <v>-1.9515013590127001E-2</v>
+        <v>-4.4961013185669418E-2</v>
       </c>
       <c r="AQ10" s="17">
-        <v>5.8899553942457501E-2</v>
+        <v>4.2861925206973059E-2</v>
       </c>
       <c r="AR10"/>
       <c r="AS10" s="9">
@@ -11390,16 +11390,16 @@
         <v>13.2080581541674</v>
       </c>
       <c r="BA10" s="17">
-        <v>4.0620538717347603E-3</v>
+        <v>-2.7978317709245675E-2</v>
       </c>
       <c r="BB10" s="17">
-        <v>1.0320722090277601E-2</v>
+        <v>-9.7251005982987703E-3</v>
       </c>
       <c r="BC10" s="17">
-        <v>-1.9515013590127001E-2</v>
+        <v>-4.4961013185669418E-2</v>
       </c>
       <c r="BD10" s="17">
-        <v>5.8899553942457501E-2</v>
+        <v>4.2861925206973059E-2</v>
       </c>
       <c r="BE10"/>
       <c r="BF10" s="9">
@@ -12506,16 +12506,16 @@
         <v>-1.2050682749057</v>
       </c>
       <c r="AN11" s="17">
-        <v>7.7834096897281E-3</v>
+        <v>-2.4256961891252336E-2</v>
       </c>
       <c r="AO11" s="17">
-        <v>2.0687804590292201E-2</v>
+        <v>6.4198190171583028E-4</v>
       </c>
       <c r="AP11" s="17">
-        <v>2.96986047350324E-2</v>
+        <v>4.2526051394899851E-3</v>
       </c>
       <c r="AQ11" s="17">
-        <v>3.12144706213093E-3</v>
+        <v>-1.2916181673353512E-2</v>
       </c>
       <c r="AR11"/>
       <c r="AS11" s="9">
@@ -12543,16 +12543,16 @@
         <v>-1.2050682749057</v>
       </c>
       <c r="BA11" s="17">
-        <v>7.7834096897281E-3</v>
+        <v>-2.4256961891252336E-2</v>
       </c>
       <c r="BB11" s="17">
-        <v>2.0687804590292201E-2</v>
+        <v>6.4198190171583028E-4</v>
       </c>
       <c r="BC11" s="17">
-        <v>2.96986047350324E-2</v>
+        <v>4.2526051394899851E-3</v>
       </c>
       <c r="BD11" s="17">
-        <v>3.12144706213093E-3</v>
+        <v>-1.2916181673353512E-2</v>
       </c>
       <c r="BE11"/>
       <c r="BF11" s="9">
@@ -13659,16 +13659,16 @@
         <v>3.0160411167388999</v>
       </c>
       <c r="AN12" s="17">
-        <v>-1.64263063509494E-2</v>
+        <v>-4.8466677931929839E-2</v>
       </c>
       <c r="AO12" s="17">
-        <v>5.1787862101107703E-2</v>
+        <v>3.1742039412531328E-2</v>
       </c>
       <c r="AP12" s="17">
-        <v>3.77008131025603E-2</v>
+        <v>1.2254813507017886E-2</v>
       </c>
       <c r="AQ12" s="17">
-        <v>1.5440587714417701E-2</v>
+        <v>-5.9704102106674165E-4</v>
       </c>
       <c r="AR12"/>
       <c r="AS12" s="9">
@@ -13696,16 +13696,16 @@
         <v>3.0160411167388999</v>
       </c>
       <c r="BA12" s="17">
-        <v>-1.64263063509494E-2</v>
+        <v>-4.8466677931929839E-2</v>
       </c>
       <c r="BB12" s="17">
-        <v>5.1787862101107703E-2</v>
+        <v>3.1742039412531328E-2</v>
       </c>
       <c r="BC12" s="17">
-        <v>3.77008131025603E-2</v>
+        <v>1.2254813507017886E-2</v>
       </c>
       <c r="BD12" s="17">
-        <v>1.5440587714417701E-2</v>
+        <v>-5.9704102106674165E-4</v>
       </c>
       <c r="BE12"/>
       <c r="BF12" s="9">
@@ -14812,16 +14812,16 @@
         <v>6.3167298563189496</v>
       </c>
       <c r="AN13" s="17">
-        <v>5.1162134033469697E-2</v>
+        <v>1.9121762452489262E-2</v>
       </c>
       <c r="AO13" s="17">
-        <v>-7.4475658089350099E-3</v>
+        <v>-2.749338849751138E-2</v>
       </c>
       <c r="AP13" s="17">
-        <v>7.0941775587446604E-2</v>
+        <v>4.5495775991904186E-2</v>
       </c>
       <c r="AQ13" s="17">
-        <v>-2.96059813583728E-2</v>
+        <v>-4.5643610093857243E-2</v>
       </c>
       <c r="AR13"/>
       <c r="AS13" s="9">
@@ -14849,16 +14849,16 @@
         <v>6.3167298563189496</v>
       </c>
       <c r="BA13" s="17">
-        <v>5.1162134033469697E-2</v>
+        <v>1.9121762452489262E-2</v>
       </c>
       <c r="BB13" s="17">
-        <v>-7.4475658089350099E-3</v>
+        <v>-2.749338849751138E-2</v>
       </c>
       <c r="BC13" s="17">
-        <v>7.0941775587446604E-2</v>
+        <v>4.5495775991904186E-2</v>
       </c>
       <c r="BD13" s="17">
-        <v>-2.96059813583728E-2</v>
+        <v>-4.5643610093857243E-2</v>
       </c>
       <c r="BE13"/>
       <c r="BF13" s="9">
@@ -15965,16 +15965,16 @@
         <v>-0.122870950691603</v>
       </c>
       <c r="AN14" s="17">
-        <v>-3.2194040575477E-2</v>
+        <v>-6.4234412156457435E-2</v>
       </c>
       <c r="AO14" s="17">
-        <v>7.9524788214490105E-2</v>
+        <v>5.9478965525913738E-2</v>
       </c>
       <c r="AP14" s="17">
-        <v>7.0344223302297601E-2</v>
+        <v>4.4898223706755183E-2</v>
       </c>
       <c r="AQ14" s="17">
-        <v>-2.6020053324136198E-2</v>
+        <v>-4.2057682059620641E-2</v>
       </c>
       <c r="AR14"/>
       <c r="AS14" s="9">
@@ -16002,16 +16002,16 @@
         <v>-0.122870950691603</v>
       </c>
       <c r="BA14" s="17">
-        <v>-3.2194040575477E-2</v>
+        <v>-6.4234412156457435E-2</v>
       </c>
       <c r="BB14" s="17">
-        <v>7.9524788214490105E-2</v>
+        <v>5.9478965525913738E-2</v>
       </c>
       <c r="BC14" s="17">
-        <v>7.0344223302297601E-2</v>
+        <v>4.4898223706755183E-2</v>
       </c>
       <c r="BD14" s="17">
-        <v>-2.6020053324136198E-2</v>
+        <v>-4.2057682059620641E-2</v>
       </c>
       <c r="BE14"/>
       <c r="BF14" s="9">
@@ -17118,16 +17118,16 @@
         <v>6.3167298563189496</v>
       </c>
       <c r="AN15" s="17">
-        <v>1.34682704199835E-2</v>
+        <v>-1.8572101160996935E-2</v>
       </c>
       <c r="AO15" s="17">
-        <v>6.5752841646542397E-3</v>
+        <v>-1.3470538523922132E-2</v>
       </c>
       <c r="AP15" s="17">
-        <v>-3.75484994963389E-3</v>
+        <v>-2.9200849545176304E-2</v>
       </c>
       <c r="AQ15" s="17">
-        <v>9.8533388161112095E-3</v>
+        <v>-6.1842899193732329E-3</v>
       </c>
       <c r="AR15"/>
       <c r="AS15" s="9">
@@ -17155,16 +17155,16 @@
         <v>6.3167298563189496</v>
       </c>
       <c r="BA15" s="17">
-        <v>1.34682704199835E-2</v>
+        <v>-1.8572101160996935E-2</v>
       </c>
       <c r="BB15" s="17">
-        <v>6.5752841646542397E-3</v>
+        <v>-1.3470538523922132E-2</v>
       </c>
       <c r="BC15" s="17">
-        <v>-3.75484994963389E-3</v>
+        <v>-2.9200849545176304E-2</v>
       </c>
       <c r="BD15" s="17">
-        <v>9.8533388161112095E-3</v>
+        <v>-6.1842899193732329E-3</v>
       </c>
       <c r="BE15"/>
       <c r="BF15" s="9">
@@ -18271,16 +18271,16 @@
         <v>22.576882184926401</v>
       </c>
       <c r="AN16" s="17">
-        <v>3.1721889760898403E-2</v>
+        <v>-3.1848182008203246E-4</v>
       </c>
       <c r="AO16" s="17">
-        <v>2.1460553978589498E-3</v>
+        <v>-1.7899767290717419E-2</v>
       </c>
       <c r="AP16" s="17">
-        <v>4.0107040998498898E-2</v>
+        <v>1.4661041402956484E-2</v>
       </c>
       <c r="AQ16" s="17">
-        <v>-4.6514760153227898E-3</v>
+        <v>-2.0689104750807232E-2</v>
       </c>
       <c r="AR16"/>
       <c r="AS16" s="9">
@@ -18308,16 +18308,16 @@
         <v>22.576882184926401</v>
       </c>
       <c r="BA16" s="17">
-        <v>3.1721889760898403E-2</v>
+        <v>-3.1848182008203246E-4</v>
       </c>
       <c r="BB16" s="17">
-        <v>2.1460553978589498E-3</v>
+        <v>-1.7899767290717419E-2</v>
       </c>
       <c r="BC16" s="17">
-        <v>4.0107040998498898E-2</v>
+        <v>1.4661041402956484E-2</v>
       </c>
       <c r="BD16" s="17">
-        <v>-4.6514760153227898E-3</v>
+        <v>-2.0689104750807232E-2</v>
       </c>
       <c r="BE16"/>
       <c r="BF16" s="9">
@@ -19424,16 +19424,16 @@
         <v>2.7781505534056099</v>
       </c>
       <c r="AN17" s="17">
-        <v>5.91112972141319E-2</v>
+        <v>2.7070925633151464E-2</v>
       </c>
       <c r="AO17" s="17">
-        <v>-6.0621371404168296E-4</v>
+        <v>-2.0652036402618056E-2</v>
       </c>
       <c r="AP17" s="17">
-        <v>3.1755197165032001E-2</v>
+        <v>6.3091975694895865E-3</v>
       </c>
       <c r="AQ17" s="17">
-        <v>8.4735653128637598E-3</v>
+        <v>-7.5640634226206826E-3</v>
       </c>
       <c r="AR17"/>
       <c r="AS17" s="9">
@@ -19461,16 +19461,16 @@
         <v>2.7781505534056099</v>
       </c>
       <c r="BA17" s="17">
-        <v>5.91112972141319E-2</v>
+        <v>2.7070925633151464E-2</v>
       </c>
       <c r="BB17" s="17">
-        <v>-6.0621371404168296E-4</v>
+        <v>-2.0652036402618056E-2</v>
       </c>
       <c r="BC17" s="17">
-        <v>3.1755197165032001E-2</v>
+        <v>6.3091975694895865E-3</v>
       </c>
       <c r="BD17" s="17">
-        <v>8.4735653128637598E-3</v>
+        <v>-7.5640634226206826E-3</v>
       </c>
       <c r="BE17"/>
       <c r="BF17" s="9">
@@ -20577,16 +20577,16 @@
         <v>4.2716059437110996</v>
       </c>
       <c r="AN18" s="17">
-        <v>-2.2000857979722701E-2</v>
+        <v>-5.4041229560703133E-2</v>
       </c>
       <c r="AO18" s="17">
-        <v>5.5138696765457101E-2</v>
+        <v>3.5092874076880734E-2</v>
       </c>
       <c r="AP18" s="17">
-        <v>6.6668964303497297E-4</v>
+        <v>-2.477930995250744E-2</v>
       </c>
       <c r="AQ18" s="17">
-        <v>2.3267807158476001E-2</v>
+        <v>7.2301784229915587E-3</v>
       </c>
       <c r="AR18"/>
       <c r="AS18" s="9">
@@ -20614,16 +20614,16 @@
         <v>4.2716059437110996</v>
       </c>
       <c r="BA18" s="17">
-        <v>-2.2000857979722701E-2</v>
+        <v>-5.4041229560703133E-2</v>
       </c>
       <c r="BB18" s="17">
-        <v>5.5138696765457101E-2</v>
+        <v>3.5092874076880734E-2</v>
       </c>
       <c r="BC18" s="17">
-        <v>6.6668964303497297E-4</v>
+        <v>-2.477930995250744E-2</v>
       </c>
       <c r="BD18" s="17">
-        <v>2.3267807158476001E-2</v>
+        <v>7.2301784229915587E-3</v>
       </c>
       <c r="BE18"/>
       <c r="BF18" s="9">
@@ -21730,16 +21730,16 @@
         <v>6.1549531841693899</v>
       </c>
       <c r="AN19" s="17">
-        <v>2.8999141571639801E-2</v>
+        <v>-3.0412300093406348E-3</v>
       </c>
       <c r="AO19" s="17">
-        <v>1.00812081358448E-2</v>
+        <v>-9.9646145527315707E-3</v>
       </c>
       <c r="AP19" s="17">
-        <v>-2.46890119439949E-2</v>
+        <v>-5.0135011539537311E-2</v>
       </c>
       <c r="AQ19" s="17">
-        <v>3.9745608721741599E-2</v>
+        <v>2.3707979986257156E-2</v>
       </c>
       <c r="AR19"/>
       <c r="AS19" s="9">
@@ -21767,16 +21767,16 @@
         <v>6.1549531841693899</v>
       </c>
       <c r="BA19" s="17">
-        <v>2.8999141571639801E-2</v>
+        <v>-3.0412300093406348E-3</v>
       </c>
       <c r="BB19" s="17">
-        <v>1.00812081358448E-2</v>
+        <v>-9.9646145527315707E-3</v>
       </c>
       <c r="BC19" s="17">
-        <v>-2.46890119439949E-2</v>
+        <v>-5.0135011539537311E-2</v>
       </c>
       <c r="BD19" s="17">
-        <v>3.9745608721741599E-2</v>
+        <v>2.3707979986257156E-2</v>
       </c>
       <c r="BE19"/>
       <c r="BF19" s="9">
@@ -22883,16 +22883,16 @@
         <v>2.5297985798186402</v>
       </c>
       <c r="AN20" s="17">
-        <v>-7.6926993317447297E-3</v>
+        <v>-3.9733070912725169E-2</v>
       </c>
       <c r="AO20" s="17">
-        <v>2.8187950624956201E-2</v>
+        <v>8.1421279363798303E-3</v>
       </c>
       <c r="AP20" s="17">
-        <v>5.8055569686298297E-2</v>
+        <v>3.2609570090755879E-2</v>
       </c>
       <c r="AQ20" s="17">
-        <v>1.2337996233946901E-3</v>
+        <v>-1.4803829112089752E-2</v>
       </c>
       <c r="AR20"/>
       <c r="AS20" s="9">
@@ -22920,16 +22920,16 @@
         <v>2.5297985798186402</v>
       </c>
       <c r="BA20" s="17">
-        <v>-7.6926993317447297E-3</v>
+        <v>-3.9733070912725169E-2</v>
       </c>
       <c r="BB20" s="17">
-        <v>2.8187950624956201E-2</v>
+        <v>8.1421279363798303E-3</v>
       </c>
       <c r="BC20" s="17">
-        <v>5.8055569686298297E-2</v>
+        <v>3.2609570090755879E-2</v>
       </c>
       <c r="BD20" s="17">
-        <v>1.2337996233946901E-3</v>
+        <v>-1.4803829112089752E-2</v>
       </c>
       <c r="BE20"/>
       <c r="BF20" s="9">
@@ -24036,16 +24036,16 @@
         <v>-7.5071547596284498</v>
       </c>
       <c r="AN21" s="17">
-        <v>3.5778950414760202E-2</v>
+        <v>3.7385788337797668E-3</v>
       </c>
       <c r="AO21" s="17">
-        <v>2.45146812439541E-2</v>
+        <v>4.4688585553777291E-3</v>
       </c>
       <c r="AP21" s="17">
-        <v>4.2748015304318501E-2</v>
+        <v>1.7302015708776087E-2</v>
       </c>
       <c r="AQ21" s="17">
-        <v>2.2514467942698901E-3</v>
+        <v>-1.3786181941214552E-2</v>
       </c>
       <c r="AR21"/>
       <c r="AS21" s="9">
@@ -24073,16 +24073,16 @@
         <v>-7.5071547596284498</v>
       </c>
       <c r="BA21" s="17">
-        <v>3.5778950414760202E-2</v>
+        <v>3.7385788337797668E-3</v>
       </c>
       <c r="BB21" s="17">
-        <v>2.45146812439541E-2</v>
+        <v>4.4688585553777291E-3</v>
       </c>
       <c r="BC21" s="17">
-        <v>4.2748015304318501E-2</v>
+        <v>1.7302015708776087E-2</v>
       </c>
       <c r="BD21" s="17">
-        <v>2.2514467942698901E-3</v>
+        <v>-1.3786181941214552E-2</v>
       </c>
       <c r="BE21"/>
       <c r="BF21" s="9">
@@ -25189,16 +25189,16 @@
         <v>0.621326051957662</v>
       </c>
       <c r="AN22" s="17">
-        <v>0.112441243090182</v>
+        <v>8.0400871509201555E-2</v>
       </c>
       <c r="AO22" s="17">
-        <v>5.5214456399075998E-3</v>
+        <v>-1.4524377048668772E-2</v>
       </c>
       <c r="AP22" s="17">
-        <v>4.32596660323913E-2</v>
+        <v>1.7813666436848886E-2</v>
       </c>
       <c r="AQ22" s="17">
-        <v>1.5353668596594299E-2</v>
+        <v>-6.8396013889014326E-4</v>
       </c>
       <c r="AR22"/>
       <c r="AS22" s="9">
@@ -25226,16 +25226,16 @@
         <v>0.621326051957662</v>
       </c>
       <c r="BA22" s="17">
-        <v>0.112441243090182</v>
+        <v>8.0400871509201555E-2</v>
       </c>
       <c r="BB22" s="17">
-        <v>5.5214456399075998E-3</v>
+        <v>-1.4524377048668772E-2</v>
       </c>
       <c r="BC22" s="17">
-        <v>4.32596660323913E-2</v>
+        <v>1.7813666436848886E-2</v>
       </c>
       <c r="BD22" s="17">
-        <v>1.5353668596594299E-2</v>
+        <v>-6.8396013889014326E-4</v>
       </c>
       <c r="BE22"/>
       <c r="BF22" s="9">
@@ -26342,16 +26342,16 @@
         <v>5.5341603850737302</v>
       </c>
       <c r="AN23" s="17">
-        <v>9.9652064991422401E-2</v>
+        <v>6.7611693410441959E-2</v>
       </c>
       <c r="AO23" s="17">
-        <v>7.0102620147583002E-3</v>
+        <v>-1.3035560673818071E-2</v>
       </c>
       <c r="AP23" s="17">
-        <v>9.3894635200711896E-2</v>
+        <v>6.8448635605169478E-2</v>
       </c>
       <c r="AQ23" s="17">
-        <v>-2.5459388986150099E-2</v>
+        <v>-4.1497017721634541E-2</v>
       </c>
       <c r="AR23"/>
       <c r="AS23" s="9">
@@ -26379,16 +26379,16 @@
         <v>5.5341603850737302</v>
       </c>
       <c r="BA23" s="17">
-        <v>9.9652064991422401E-2</v>
+        <v>6.7611693410441959E-2</v>
       </c>
       <c r="BB23" s="17">
-        <v>7.0102620147583002E-3</v>
+        <v>-1.3035560673818071E-2</v>
       </c>
       <c r="BC23" s="17">
-        <v>9.3894635200711896E-2</v>
+        <v>6.8448635605169478E-2</v>
       </c>
       <c r="BD23" s="17">
-        <v>-2.5459388986150099E-2</v>
+        <v>-4.1497017721634541E-2</v>
       </c>
       <c r="BE23"/>
       <c r="BF23" s="9">
@@ -27495,16 +27495,16 @@
         <v>9.8472359097407605</v>
       </c>
       <c r="AN24" s="17">
-        <v>-1.4219171724839001E-2</v>
+        <v>-4.6259543305819439E-2</v>
       </c>
       <c r="AO24" s="17">
-        <v>8.6532184799312406E-2</v>
+        <v>6.6486362110736039E-2</v>
       </c>
       <c r="AP24" s="17">
-        <v>5.1804634907277998E-2</v>
+        <v>2.6358635311735584E-2</v>
       </c>
       <c r="AQ24" s="17">
-        <v>4.3885120837273903E-3</v>
+        <v>-1.1649116651757052E-2</v>
       </c>
       <c r="AR24"/>
       <c r="AS24" s="9">
@@ -27532,16 +27532,16 @@
         <v>9.8472359097407605</v>
       </c>
       <c r="BA24" s="17">
-        <v>-1.4219171724839001E-2</v>
+        <v>-4.6259543305819439E-2</v>
       </c>
       <c r="BB24" s="17">
-        <v>8.6532184799312406E-2</v>
+        <v>6.6486362110736039E-2</v>
       </c>
       <c r="BC24" s="17">
-        <v>5.1804634907277998E-2</v>
+        <v>2.6358635311735584E-2</v>
       </c>
       <c r="BD24" s="17">
-        <v>4.3885120837273903E-3</v>
+        <v>-1.1649116651757052E-2</v>
       </c>
       <c r="BE24"/>
       <c r="BF24" s="9">
@@ -28648,16 +28648,16 @@
         <v>5.0321531938017499</v>
       </c>
       <c r="AN25" s="17">
-        <v>1.5831638706567199E-2</v>
+        <v>-1.6208732874413236E-2</v>
       </c>
       <c r="AO25" s="17">
-        <v>5.7987085289405898E-3</v>
+        <v>-1.4247114159635782E-2</v>
       </c>
       <c r="AP25" s="17">
-        <v>3.3399057653807698E-2</v>
+        <v>7.9530580582652839E-3</v>
       </c>
       <c r="AQ25" s="17">
-        <v>-7.30017516862659E-3</v>
+        <v>-2.3337803904111033E-2</v>
       </c>
       <c r="AR25"/>
       <c r="AS25" s="9">
@@ -28685,16 +28685,16 @@
         <v>5.0321531938017499</v>
       </c>
       <c r="BA25" s="17">
-        <v>1.5831638706567199E-2</v>
+        <v>-1.6208732874413236E-2</v>
       </c>
       <c r="BB25" s="17">
-        <v>5.7987085289405898E-3</v>
+        <v>-1.4247114159635782E-2</v>
       </c>
       <c r="BC25" s="17">
-        <v>3.3399057653807698E-2</v>
+        <v>7.9530580582652839E-3</v>
       </c>
       <c r="BD25" s="17">
-        <v>-7.30017516862659E-3</v>
+        <v>-2.3337803904111033E-2</v>
       </c>
       <c r="BE25"/>
       <c r="BF25" s="9">
@@ -29801,16 +29801,16 @@
         <v>3.0241244287138098</v>
       </c>
       <c r="AN26" s="17">
-        <v>4.1213968853840599E-2</v>
+        <v>9.1735972728601636E-3</v>
       </c>
       <c r="AO26" s="17">
-        <v>-2.0212208301010299E-2</v>
+        <v>-4.025803098958667E-2</v>
       </c>
       <c r="AP26" s="17">
-        <v>-1.23391015770091E-3</v>
+        <v>-2.6679909753243324E-2</v>
       </c>
       <c r="AQ26" s="17">
-        <v>5.42910564952645E-2</v>
+        <v>3.8253427759780058E-2</v>
       </c>
       <c r="AR26"/>
       <c r="AS26" s="9">
@@ -29838,16 +29838,16 @@
         <v>3.0241244287138098</v>
       </c>
       <c r="BA26" s="17">
-        <v>4.1213968853840599E-2</v>
+        <v>9.1735972728601636E-3</v>
       </c>
       <c r="BB26" s="17">
-        <v>-2.0212208301010299E-2</v>
+        <v>-4.025803098958667E-2</v>
       </c>
       <c r="BC26" s="17">
-        <v>-1.23391015770091E-3</v>
+        <v>-2.6679909753243324E-2</v>
       </c>
       <c r="BD26" s="17">
-        <v>5.42910564952645E-2</v>
+        <v>3.8253427759780058E-2</v>
       </c>
       <c r="BE26"/>
       <c r="BF26" s="9">
@@ -30954,16 +30954,16 @@
         <v>16.693002043695699</v>
       </c>
       <c r="AN27" s="17">
-        <v>4.9693122592590198E-2</v>
+        <v>1.7652751011609763E-2</v>
       </c>
       <c r="AO27" s="17">
-        <v>-1.8880302539639299E-3</v>
+        <v>-2.1933852942540299E-2</v>
       </c>
       <c r="AP27" s="17">
-        <v>8.3517844582306003E-2</v>
+        <v>5.8071844986763585E-2</v>
       </c>
       <c r="AQ27" s="17">
-        <v>-2.9245321057811999E-2</v>
+        <v>-4.5282949793296445E-2</v>
       </c>
       <c r="AR27"/>
       <c r="AS27" s="9">
@@ -30991,16 +30991,16 @@
         <v>16.693002043695699</v>
       </c>
       <c r="BA27" s="17">
-        <v>4.9693122592590198E-2</v>
+        <v>1.7652751011609763E-2</v>
       </c>
       <c r="BB27" s="17">
-        <v>-1.8880302539639299E-3</v>
+        <v>-2.1933852942540299E-2</v>
       </c>
       <c r="BC27" s="17">
-        <v>8.3517844582306003E-2</v>
+        <v>5.8071844986763585E-2</v>
       </c>
       <c r="BD27" s="17">
-        <v>-2.9245321057811999E-2</v>
+        <v>-4.5282949793296445E-2</v>
       </c>
       <c r="BE27"/>
       <c r="BF27" s="9">
@@ -32107,16 +32107,16 @@
         <v>-21.3110358858663</v>
       </c>
       <c r="AN28" s="17">
-        <v>-2.8899496084413299E-2</v>
+        <v>-6.0939867665393735E-2</v>
       </c>
       <c r="AO28" s="17">
-        <v>5.4839438061992797E-2</v>
+        <v>3.4793615373416423E-2</v>
       </c>
       <c r="AP28" s="17">
-        <v>2.40289583287004E-2</v>
+        <v>-1.4170412668420146E-3</v>
       </c>
       <c r="AQ28" s="17">
-        <v>1.3467797770164099E-2</v>
+        <v>-2.5698309653203431E-3</v>
       </c>
       <c r="AR28"/>
       <c r="AS28" s="9">
@@ -32144,16 +32144,16 @@
         <v>-21.3110358858663</v>
       </c>
       <c r="BA28" s="17">
-        <v>-2.8899496084413299E-2</v>
+        <v>-6.0939867665393735E-2</v>
       </c>
       <c r="BB28" s="17">
-        <v>5.4839438061992797E-2</v>
+        <v>3.4793615373416423E-2</v>
       </c>
       <c r="BC28" s="17">
-        <v>2.40289583287004E-2</v>
+        <v>-1.4170412668420146E-3</v>
       </c>
       <c r="BD28" s="17">
-        <v>1.3467797770164099E-2</v>
+        <v>-2.5698309653203431E-3</v>
       </c>
       <c r="BE28"/>
       <c r="BF28" s="9">
@@ -33260,16 +33260,16 @@
         <v>8.2225695492040707</v>
       </c>
       <c r="AN29" s="17">
-        <v>3.7264252971194303E-2</v>
+        <v>5.2238813902138678E-3</v>
       </c>
       <c r="AO29" s="17">
-        <v>-6.9440305612916003E-4</v>
+        <v>-2.0740225744705531E-2</v>
       </c>
       <c r="AP29" s="17">
-        <v>2.6972059601918501E-2</v>
+        <v>1.5260600063760864E-3</v>
       </c>
       <c r="AQ29" s="17">
-        <v>1.75443537213332E-2</v>
+        <v>1.5067249858487577E-3</v>
       </c>
       <c r="AR29"/>
       <c r="AS29" s="9">
@@ -33297,16 +33297,16 @@
         <v>8.2225695492040707</v>
       </c>
       <c r="BA29" s="17">
-        <v>3.7264252971194303E-2</v>
+        <v>5.2238813902138678E-3</v>
       </c>
       <c r="BB29" s="17">
-        <v>-6.9440305612916003E-4</v>
+        <v>-2.0740225744705531E-2</v>
       </c>
       <c r="BC29" s="17">
-        <v>2.6972059601918501E-2</v>
+        <v>1.5260600063760864E-3</v>
       </c>
       <c r="BD29" s="17">
-        <v>1.75443537213332E-2</v>
+        <v>1.5067249858487577E-3</v>
       </c>
       <c r="BE29"/>
       <c r="BF29" s="9">
@@ -34413,16 +34413,16 @@
         <v>-2.2878288835315401</v>
       </c>
       <c r="AN30" s="17">
-        <v>3.0184897428611999E-2</v>
+        <v>-1.8554741523684366E-3</v>
       </c>
       <c r="AO30" s="17">
-        <v>4.9710273773095698E-2</v>
+        <v>2.9664451084519327E-2</v>
       </c>
       <c r="AP30" s="17">
-        <v>-4.2382610993145498E-3</v>
+        <v>-2.9684260694856964E-2</v>
       </c>
       <c r="AQ30" s="17">
-        <v>3.52024113183768E-2</v>
+        <v>1.9164782582892358E-2</v>
       </c>
       <c r="AR30"/>
       <c r="AS30" s="9">
@@ -34450,16 +34450,16 @@
         <v>-2.2878288835315401</v>
       </c>
       <c r="BA30" s="17">
-        <v>3.0184897428611999E-2</v>
+        <v>-1.8554741523684366E-3</v>
       </c>
       <c r="BB30" s="17">
-        <v>4.9710273773095698E-2</v>
+        <v>2.9664451084519327E-2</v>
       </c>
       <c r="BC30" s="17">
-        <v>-4.2382610993145498E-3</v>
+        <v>-2.9684260694856964E-2</v>
       </c>
       <c r="BD30" s="17">
-        <v>3.52024113183768E-2</v>
+        <v>1.9164782582892358E-2</v>
       </c>
       <c r="BE30"/>
       <c r="BF30" s="9">
@@ -35566,16 +35566,16 @@
         <v>4.0653825966195898</v>
       </c>
       <c r="AN31" s="17">
-        <v>5.0215188516758401E-2</v>
+        <v>1.8174816935777965E-2</v>
       </c>
       <c r="AO31" s="17">
-        <v>1.93417766330354E-2</v>
+        <v>-7.0404605554097097E-4</v>
       </c>
       <c r="AP31" s="17">
-        <v>2.36459343242716E-2</v>
+        <v>-1.8000652712708148E-3</v>
       </c>
       <c r="AQ31" s="17">
-        <v>4.2984781230914603E-3</v>
+        <v>-1.1739150612392982E-2</v>
       </c>
       <c r="AR31"/>
       <c r="AS31" s="9">
@@ -35603,16 +35603,16 @@
         <v>4.0653825966195898</v>
       </c>
       <c r="BA31" s="17">
-        <v>5.0215188516758401E-2</v>
+        <v>1.8174816935777965E-2</v>
       </c>
       <c r="BB31" s="17">
-        <v>1.93417766330354E-2</v>
+        <v>-7.0404605554097097E-4</v>
       </c>
       <c r="BC31" s="17">
-        <v>2.36459343242716E-2</v>
+        <v>-1.8000652712708148E-3</v>
       </c>
       <c r="BD31" s="17">
-        <v>4.2984781230914603E-3</v>
+        <v>-1.1739150612392982E-2</v>
       </c>
       <c r="BE31"/>
       <c r="BF31" s="9">
@@ -36719,16 +36719,16 @@
         <v>2.0124222509095899</v>
       </c>
       <c r="AN32" s="17">
-        <v>5.2135283072740402E-2</v>
+        <v>2.0094911491759966E-2</v>
       </c>
       <c r="AO32" s="17">
-        <v>-8.7563263751523901E-3</v>
+        <v>-2.8802149063728761E-2</v>
       </c>
       <c r="AP32" s="17">
-        <v>3.2409446459015202E-2</v>
+        <v>6.9634468634727879E-3</v>
       </c>
       <c r="AQ32" s="17">
-        <v>8.2922444521965795E-3</v>
+        <v>-7.7453842832878629E-3</v>
       </c>
       <c r="AR32"/>
       <c r="AS32" s="9">
@@ -36756,16 +36756,16 @@
         <v>2.0124222509095899</v>
       </c>
       <c r="BA32" s="17">
-        <v>5.2135283072740402E-2</v>
+        <v>2.0094911491759966E-2</v>
       </c>
       <c r="BB32" s="17">
-        <v>-8.7563263751523901E-3</v>
+        <v>-2.8802149063728761E-2</v>
       </c>
       <c r="BC32" s="17">
-        <v>3.2409446459015202E-2</v>
+        <v>6.9634468634727879E-3</v>
       </c>
       <c r="BD32" s="17">
-        <v>8.2922444521965795E-3</v>
+        <v>-7.7453842832878629E-3</v>
       </c>
       <c r="BE32"/>
       <c r="BF32" s="9">
@@ -37872,16 +37872,16 @@
         <v>-54.007188089647798</v>
       </c>
       <c r="AN33" s="17">
-        <v>1.8150530226597E-2</v>
+        <v>-1.3889841354383436E-2</v>
       </c>
       <c r="AO33" s="17">
-        <v>-8.2732561509506598E-4</v>
+        <v>-2.0873148303671436E-2</v>
       </c>
       <c r="AP33" s="17">
-        <v>-3.2511664211994501E-2</v>
+        <v>-5.7957663807536919E-2</v>
       </c>
       <c r="AQ33" s="17">
-        <v>7.7331491651756706E-2</v>
+        <v>6.1293862916272264E-2</v>
       </c>
       <c r="AR33"/>
       <c r="AS33" s="9">
@@ -37909,16 +37909,16 @@
         <v>-54.007188089647798</v>
       </c>
       <c r="BA33" s="17">
-        <v>1.8150530226597E-2</v>
+        <v>-1.3889841354383436E-2</v>
       </c>
       <c r="BB33" s="17">
-        <v>-8.2732561509506598E-4</v>
+        <v>-2.0873148303671436E-2</v>
       </c>
       <c r="BC33" s="17">
-        <v>-3.2511664211994501E-2</v>
+        <v>-5.7957663807536919E-2</v>
       </c>
       <c r="BD33" s="17">
-        <v>7.7331491651756706E-2</v>
+        <v>6.1293862916272264E-2</v>
       </c>
       <c r="BE33"/>
       <c r="BF33" s="9">
@@ -39025,16 +39025,16 @@
         <v>3.2730904375410899</v>
       </c>
       <c r="AN34" s="17">
-        <v>3.0810649687640201E-2</v>
+        <v>-1.2297218933402347E-3</v>
       </c>
       <c r="AO34" s="17">
-        <v>6.3031004552850795E-2</v>
+        <v>4.2985181864274427E-2</v>
       </c>
       <c r="AP34" s="17">
-        <v>-9.6831952338455707E-2</v>
+        <v>-0.12227795193399812</v>
       </c>
       <c r="AQ34" s="17">
-        <v>0.111510936687235</v>
+        <v>9.5473307951750547E-2</v>
       </c>
       <c r="AR34"/>
       <c r="AS34" s="9">
@@ -39062,16 +39062,16 @@
         <v>3.2730904375410899</v>
       </c>
       <c r="BA34" s="17">
-        <v>3.0810649687640201E-2</v>
+        <v>-1.2297218933402347E-3</v>
       </c>
       <c r="BB34" s="17">
-        <v>6.3031004552850795E-2</v>
+        <v>4.2985181864274427E-2</v>
       </c>
       <c r="BC34" s="17">
-        <v>-9.6831952338455707E-2</v>
+        <v>-0.12227795193399812</v>
       </c>
       <c r="BD34" s="17">
-        <v>0.111510936687235</v>
+        <v>9.5473307951750547E-2</v>
       </c>
       <c r="BE34"/>
       <c r="BF34" s="9">
@@ -40178,16 +40178,16 @@
         <v>1.2364092629674399</v>
       </c>
       <c r="AN35" s="17">
-        <v>8.90675044749102E-2</v>
+        <v>5.7027132893929765E-2</v>
       </c>
       <c r="AO35" s="17">
-        <v>-1.8723493857655701E-2</v>
+        <v>-3.8769316546232072E-2</v>
       </c>
       <c r="AP35" s="17">
-        <v>1.77952073007311E-3</v>
+        <v>-2.3666478865469305E-2</v>
       </c>
       <c r="AQ35" s="17">
-        <v>7.6447621682118702E-2</v>
+        <v>6.040999294663426E-2</v>
       </c>
       <c r="AR35"/>
       <c r="AS35" s="9">
@@ -40215,16 +40215,16 @@
         <v>1.2364092629674399</v>
       </c>
       <c r="BA35" s="17">
-        <v>8.90675044749102E-2</v>
+        <v>5.7027132893929765E-2</v>
       </c>
       <c r="BB35" s="17">
-        <v>-1.8723493857655701E-2</v>
+        <v>-3.8769316546232072E-2</v>
       </c>
       <c r="BC35" s="17">
-        <v>1.77952073007311E-3</v>
+        <v>-2.3666478865469305E-2</v>
       </c>
       <c r="BD35" s="17">
-        <v>7.6447621682118702E-2</v>
+        <v>6.040999294663426E-2</v>
       </c>
       <c r="BE35"/>
       <c r="BF35" s="9">
@@ -41331,16 +41331,16 @@
         <v>5.0321531938017499</v>
       </c>
       <c r="AN36" s="17">
-        <v>0.11534873600616501</v>
+        <v>8.3308364425184578E-2</v>
       </c>
       <c r="AO36" s="17">
-        <v>-3.0334172143503899E-2</v>
+        <v>-5.037999483208027E-2</v>
       </c>
       <c r="AP36" s="17">
-        <v>-9.4934162001621201E-4</v>
+        <v>-2.6395341215558626E-2</v>
       </c>
       <c r="AQ36" s="17">
-        <v>6.3647218304570097E-2</v>
+        <v>4.7609589569085654E-2</v>
       </c>
       <c r="AR36"/>
       <c r="AS36" s="9">
@@ -41368,16 +41368,16 @@
         <v>5.0321531938017499</v>
       </c>
       <c r="BA36" s="17">
-        <v>0.11534873600616501</v>
+        <v>8.3308364425184578E-2</v>
       </c>
       <c r="BB36" s="17">
-        <v>-3.0334172143503899E-2</v>
+        <v>-5.037999483208027E-2</v>
       </c>
       <c r="BC36" s="17">
-        <v>-9.4934162001621201E-4</v>
+        <v>-2.6395341215558626E-2</v>
       </c>
       <c r="BD36" s="17">
-        <v>6.3647218304570097E-2</v>
+        <v>4.7609589569085654E-2</v>
       </c>
       <c r="BE36"/>
       <c r="BF36" s="9">
@@ -42484,16 +42484,16 @@
         <v>-14.7036848654447</v>
       </c>
       <c r="AN37" s="17">
-        <v>3.6703141255051898E-2</v>
+        <v>4.6627696740714625E-3</v>
       </c>
       <c r="AO37" s="17">
-        <v>-6.26725164782617E-3</v>
+        <v>-2.631307433640254E-2</v>
       </c>
       <c r="AP37" s="17">
-        <v>-6.0965458948189898E-3</v>
+        <v>-3.1542545490361402E-2</v>
       </c>
       <c r="AQ37" s="17">
-        <v>3.7401684077959498E-2</v>
+        <v>2.1364055342475055E-2</v>
       </c>
       <c r="AR37"/>
       <c r="AS37" s="9">
@@ -42521,16 +42521,16 @@
         <v>-14.7036848654447</v>
       </c>
       <c r="BA37" s="17">
-        <v>3.6703141255051898E-2</v>
+        <v>4.6627696740714625E-3</v>
       </c>
       <c r="BB37" s="17">
-        <v>-6.26725164782617E-3</v>
+        <v>-2.631307433640254E-2</v>
       </c>
       <c r="BC37" s="17">
-        <v>-6.0965458948189898E-3</v>
+        <v>-3.1542545490361402E-2</v>
       </c>
       <c r="BD37" s="17">
-        <v>3.7401684077959498E-2</v>
+        <v>2.1364055342475055E-2</v>
       </c>
       <c r="BE37"/>
       <c r="BF37" s="9">
@@ -43637,16 +43637,16 @@
         <v>-1.2050682749057</v>
       </c>
       <c r="AN38" s="17">
-        <v>4.3030625824037397E-2</v>
+        <v>1.0990254243056961E-2</v>
       </c>
       <c r="AO38" s="17">
-        <v>-1.0816042405424499E-2</v>
+        <v>-3.0861865094000872E-2</v>
       </c>
       <c r="AP38" s="17">
-        <v>0.105706925666071</v>
+        <v>8.0260926070528579E-2</v>
       </c>
       <c r="AQ38" s="17">
-        <v>-3.2384485214860897E-2</v>
+        <v>-4.842211395034534E-2</v>
       </c>
       <c r="AR38"/>
       <c r="AS38" s="9">
@@ -43674,16 +43674,16 @@
         <v>-1.2050682749057</v>
       </c>
       <c r="BA38" s="17">
-        <v>4.3030625824037397E-2</v>
+        <v>1.0990254243056961E-2</v>
       </c>
       <c r="BB38" s="17">
-        <v>-1.0816042405424499E-2</v>
+        <v>-3.0861865094000872E-2</v>
       </c>
       <c r="BC38" s="17">
-        <v>0.105706925666071</v>
+        <v>8.0260926070528579E-2</v>
       </c>
       <c r="BD38" s="17">
-        <v>-3.2384485214860897E-2</v>
+        <v>-4.842211395034534E-2</v>
       </c>
       <c r="BE38"/>
       <c r="BF38" s="9">
@@ -44790,16 +44790,16 @@
         <v>-14.7036848654447</v>
       </c>
       <c r="AN39" s="17">
-        <v>4.6545121208802998E-2</v>
+        <v>1.4504749627822562E-2</v>
       </c>
       <c r="AO39" s="17">
-        <v>6.8842472717887404E-3</v>
+        <v>-1.316157541678763E-2</v>
       </c>
       <c r="AP39" s="17">
-        <v>4.8481926346106298E-2</v>
+        <v>2.3035926750563884E-2</v>
       </c>
       <c r="AQ39" s="17">
-        <v>-2.0221600623384899E-2</v>
+        <v>-3.6259229358869341E-2</v>
       </c>
       <c r="AR39"/>
       <c r="AS39" s="9">
@@ -44827,16 +44827,16 @@
         <v>-14.7036848654447</v>
       </c>
       <c r="BA39" s="17">
-        <v>4.6545121208802998E-2</v>
+        <v>1.4504749627822562E-2</v>
       </c>
       <c r="BB39" s="17">
-        <v>6.8842472717887404E-3</v>
+        <v>-1.316157541678763E-2</v>
       </c>
       <c r="BC39" s="17">
-        <v>4.8481926346106298E-2</v>
+        <v>2.3035926750563884E-2</v>
       </c>
       <c r="BD39" s="17">
-        <v>-2.0221600623384899E-2</v>
+        <v>-3.6259229358869341E-2</v>
       </c>
       <c r="BE39"/>
       <c r="BF39" s="9">
@@ -45943,16 +45943,16 @@
         <v>5.9507751350351201</v>
       </c>
       <c r="AN40" s="17">
-        <v>3.7864878308571399E-3</v>
+        <v>-2.8253883750123297E-2</v>
       </c>
       <c r="AO40" s="17">
-        <v>7.1714430684227101E-2</v>
+        <v>5.1668607995650734E-2</v>
       </c>
       <c r="AP40" s="17">
-        <v>4.14081706070017E-2</v>
+        <v>1.5962171011459286E-2</v>
       </c>
       <c r="AQ40" s="17">
-        <v>7.0013981314910202E-3</v>
+        <v>-9.0362306039934222E-3</v>
       </c>
       <c r="AR40"/>
       <c r="AS40" s="9">
@@ -45980,16 +45980,16 @@
         <v>5.9507751350351201</v>
       </c>
       <c r="BA40" s="17">
-        <v>3.7864878308571399E-3</v>
+        <v>-2.8253883750123297E-2</v>
       </c>
       <c r="BB40" s="17">
-        <v>7.1714430684227101E-2</v>
+        <v>5.1668607995650734E-2</v>
       </c>
       <c r="BC40" s="17">
-        <v>4.14081706070017E-2</v>
+        <v>1.5962171011459286E-2</v>
       </c>
       <c r="BD40" s="17">
-        <v>7.0013981314910202E-3</v>
+        <v>-9.0362306039934222E-3</v>
       </c>
       <c r="BE40"/>
       <c r="BF40" s="9">
@@ -47096,16 +47096,16 @@
         <v>0.12955666272931099</v>
       </c>
       <c r="AN41" s="17">
-        <v>1.03876803194038E-2</v>
+        <v>-2.1652691261576637E-2</v>
       </c>
       <c r="AO41" s="17">
-        <v>2.9487507056927102E-2</v>
+        <v>9.4416843683507307E-3</v>
       </c>
       <c r="AP41" s="17">
-        <v>1.0012627317886999E-2</v>
+        <v>-1.5433372277655415E-2</v>
       </c>
       <c r="AQ41" s="17">
-        <v>2.1746310220185298E-2</v>
+        <v>5.708681484700856E-3</v>
       </c>
       <c r="AR41"/>
       <c r="AS41" s="9">
@@ -47133,16 +47133,16 @@
         <v>0.12955666272931099</v>
       </c>
       <c r="BA41" s="17">
-        <v>1.03876803194038E-2</v>
+        <v>-2.1652691261576637E-2</v>
       </c>
       <c r="BB41" s="17">
-        <v>2.9487507056927102E-2</v>
+        <v>9.4416843683507307E-3</v>
       </c>
       <c r="BC41" s="17">
-        <v>1.0012627317886999E-2</v>
+        <v>-1.5433372277655415E-2</v>
       </c>
       <c r="BD41" s="17">
-        <v>2.1746310220185298E-2</v>
+        <v>5.708681484700856E-3</v>
       </c>
       <c r="BE41"/>
       <c r="BF41" s="9">
@@ -48249,16 +48249,16 @@
         <v>1.2148704699125601</v>
       </c>
       <c r="AN42" s="17">
-        <v>1.4943358166398701E-2</v>
+        <v>-1.7097013414581735E-2</v>
       </c>
       <c r="AO42" s="17">
-        <v>3.08488738964354E-2</v>
+        <v>1.080305120785903E-2</v>
       </c>
       <c r="AP42" s="17">
-        <v>4.5153263745292799E-2</v>
+        <v>1.9707264149750384E-2</v>
       </c>
       <c r="AQ42" s="17">
-        <v>-2.2089495366189201E-2</v>
+        <v>-3.812712410167364E-2</v>
       </c>
       <c r="AR42"/>
       <c r="AS42" s="9">
@@ -48286,16 +48286,16 @@
         <v>1.2148704699125601</v>
       </c>
       <c r="BA42" s="17">
-        <v>1.4943358166398701E-2</v>
+        <v>-1.7097013414581735E-2</v>
       </c>
       <c r="BB42" s="17">
-        <v>3.08488738964354E-2</v>
+        <v>1.080305120785903E-2</v>
       </c>
       <c r="BC42" s="17">
-        <v>4.5153263745292799E-2</v>
+        <v>1.9707264149750384E-2</v>
       </c>
       <c r="BD42" s="17">
-        <v>-2.2089495366189201E-2</v>
+        <v>-3.812712410167364E-2</v>
       </c>
       <c r="BE42"/>
       <c r="BF42" s="9">
@@ -49402,16 +49402,16 @@
         <v>6.4628101357909404</v>
       </c>
       <c r="AN43" s="17">
-        <v>0.11121856082866299</v>
+        <v>7.9178189247682551E-2</v>
       </c>
       <c r="AO43" s="17">
-        <v>-4.4084179945711198E-2</v>
+        <v>-6.4130002634287572E-2</v>
       </c>
       <c r="AP43" s="17">
-        <v>2.4179546758084602E-2</v>
+        <v>-1.2664528374578127E-3</v>
       </c>
       <c r="AQ43" s="17">
-        <v>3.4198456316737E-2</v>
+        <v>1.8160827581252557E-2</v>
       </c>
       <c r="AR43"/>
       <c r="AS43" s="9">
@@ -49439,16 +49439,16 @@
         <v>6.4628101357909404</v>
       </c>
       <c r="BA43" s="17">
-        <v>0.11121856082866299</v>
+        <v>7.9178189247682551E-2</v>
       </c>
       <c r="BB43" s="17">
-        <v>-4.4084179945711198E-2</v>
+        <v>-6.4130002634287572E-2</v>
       </c>
       <c r="BC43" s="17">
-        <v>2.4179546758084602E-2</v>
+        <v>-1.2664528374578127E-3</v>
       </c>
       <c r="BD43" s="17">
-        <v>3.4198456316737E-2</v>
+        <v>1.8160827581252557E-2</v>
       </c>
       <c r="BE43"/>
       <c r="BF43" s="9">
@@ -50555,16 +50555,16 @@
         <v>-3.1569388022654601</v>
       </c>
       <c r="AN44" s="17">
-        <v>6.5311721225188796E-3</v>
+        <v>-2.5509199458461557E-2</v>
       </c>
       <c r="AO44" s="17">
-        <v>4.5887725784963203E-2</v>
+        <v>2.5841903096386832E-2</v>
       </c>
       <c r="AP44" s="17">
-        <v>-9.0653705616476794E-3</v>
+        <v>-3.4511370157190094E-2</v>
       </c>
       <c r="AQ44" s="17">
-        <v>4.57393395638249E-2</v>
+        <v>2.9701710828340458E-2</v>
       </c>
       <c r="AR44"/>
       <c r="AS44" s="9">
@@ -50592,16 +50592,16 @@
         <v>-3.1569388022654601</v>
       </c>
       <c r="BA44" s="17">
-        <v>6.5311721225188796E-3</v>
+        <v>-2.5509199458461557E-2</v>
       </c>
       <c r="BB44" s="17">
-        <v>4.5887725784963203E-2</v>
+        <v>2.5841903096386832E-2</v>
       </c>
       <c r="BC44" s="17">
-        <v>-9.0653705616476794E-3</v>
+        <v>-3.4511370157190094E-2</v>
       </c>
       <c r="BD44" s="17">
-        <v>4.57393395638249E-2</v>
+        <v>2.9701710828340458E-2</v>
       </c>
       <c r="BE44"/>
       <c r="BF44" s="9">
@@ -51708,16 +51708,16 @@
         <v>-14.7196189625228</v>
       </c>
       <c r="AN45" s="17">
-        <v>9.3200639272818395E-2</v>
+        <v>6.1160267691837959E-2</v>
       </c>
       <c r="AO45" s="17">
-        <v>5.1710179952844298E-2</v>
+        <v>3.1664357264267931E-2</v>
       </c>
       <c r="AP45" s="17">
-        <v>6.0840808950448202E-2</v>
+        <v>3.5394809354905785E-2</v>
       </c>
       <c r="AQ45" s="17">
-        <v>-8.6433452613522092E-3</v>
+        <v>-2.468097399683665E-2</v>
       </c>
       <c r="AR45"/>
       <c r="AS45" s="9">
@@ -51745,16 +51745,16 @@
         <v>-14.7196189625228</v>
       </c>
       <c r="BA45" s="17">
-        <v>9.3200639272818395E-2</v>
+        <v>6.1160267691837959E-2</v>
       </c>
       <c r="BB45" s="17">
-        <v>5.1710179952844298E-2</v>
+        <v>3.1664357264267931E-2</v>
       </c>
       <c r="BC45" s="17">
-        <v>6.0840808950448202E-2</v>
+        <v>3.5394809354905785E-2</v>
       </c>
       <c r="BD45" s="17">
-        <v>-8.6433452613522092E-3</v>
+        <v>-2.468097399683665E-2</v>
       </c>
       <c r="BE45"/>
       <c r="BF45" s="9">
@@ -52861,16 +52861,16 @@
         <v>-3.1569388022654601</v>
       </c>
       <c r="AN46" s="17">
-        <v>4.4722090494644902E-3</v>
+        <v>-2.7568162531515946E-2</v>
       </c>
       <c r="AO46" s="17">
-        <v>2.4176590333052899E-2</v>
+        <v>4.1307676444765282E-3</v>
       </c>
       <c r="AP46" s="17">
-        <v>3.6522258207380802E-2</v>
+        <v>1.1076258611838388E-2</v>
       </c>
       <c r="AQ46" s="17">
-        <v>1.55191170977348E-2</v>
+        <v>-5.185116377496423E-4</v>
       </c>
       <c r="AR46"/>
       <c r="AS46" s="9">
@@ -52898,16 +52898,16 @@
         <v>-3.1569388022654601</v>
       </c>
       <c r="BA46" s="17">
-        <v>4.4722090494644902E-3</v>
+        <v>-2.7568162531515946E-2</v>
       </c>
       <c r="BB46" s="17">
-        <v>2.4176590333052899E-2</v>
+        <v>4.1307676444765282E-3</v>
       </c>
       <c r="BC46" s="17">
-        <v>3.6522258207380802E-2</v>
+        <v>1.1076258611838388E-2</v>
       </c>
       <c r="BD46" s="17">
-        <v>1.55191170977348E-2</v>
+        <v>-5.185116377496423E-4</v>
       </c>
       <c r="BE46"/>
       <c r="BF46" s="9">
@@ -54007,16 +54007,16 @@
         <v>2.9432913089646902</v>
       </c>
       <c r="AN47" s="17">
-        <v>8.3683073811688394E-2</v>
+        <v>5.1642702230707958E-2</v>
       </c>
       <c r="AO47" s="17">
-        <v>-5.1420505359995403E-3</v>
+        <v>-2.5187873224575913E-2</v>
       </c>
       <c r="AP47" s="17">
-        <v>-2.0243779067765699E-2</v>
+        <v>-4.5689778663308117E-2</v>
       </c>
       <c r="AQ47" s="17">
-        <v>5.7839876665904399E-2</v>
+        <v>4.1802247930419957E-2</v>
       </c>
       <c r="AS47" s="14">
         <v>1</v>
@@ -54043,16 +54043,16 @@
         <v>2.9432913089646902</v>
       </c>
       <c r="BA47" s="17">
-        <v>8.3683073811688394E-2</v>
+        <v>5.1642702230707958E-2</v>
       </c>
       <c r="BB47" s="17">
-        <v>-5.1420505359995403E-3</v>
+        <v>-2.5187873224575913E-2</v>
       </c>
       <c r="BC47" s="17">
-        <v>-2.0243779067765699E-2</v>
+        <v>-4.5689778663308117E-2</v>
       </c>
       <c r="BD47" s="17">
-        <v>5.7839876665904399E-2</v>
+        <v>4.1802247930419957E-2</v>
       </c>
       <c r="BF47" s="14">
         <v>1</v>
